--- a/anuncios_alquiler_espanha0.xlsx
+++ b/anuncios_alquiler_espanha0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J151"/>
+  <dimension ref="A1:J121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,7 +494,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Piso en calle Provenza, 506, La Sagrada Família, Barcelona</t>
+          <t>Piso en calle de la Portaferrissa, El Gòtic, Barcelona</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -504,16 +504,16 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> La Sagrada Família</t>
+          <t xml:space="preserve"> El Gòtic</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>75</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>920</v>
+        <v>2600</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -522,7 +522,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>7ª</t>
+          <t>2ª</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Piso en calle de Provenza, 506, La Sagrada Família, Barcelona</t>
+          <t>Piso en calle de Martí, 94, Vila de Gràcia, Barcelona</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -596,25 +596,25 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> La Sagrada Família</t>
+          <t xml:space="preserve"> Vila de Gràcia</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>83</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>920</v>
+        <v>1700</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>5ª</t>
+          <t>1ª</t>
         </is>
       </c>
     </row>
@@ -678,29 +678,37 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Estudio en plaza Reial, El Gòtic, Barcelona</t>
+          <t>Piso en calle de Parcerisa, 25, La Bordeta, Barcelona</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Estudio</t>
+          <t>Piso</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> El Gòtic</t>
+          <t xml:space="preserve"> La Bordeta</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>68</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1095</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>2950</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>10ª</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -716,29 +724,37 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Estudio en Sant Pere - Santa Caterina i la Ribera, Barcelona</t>
+          <t>Piso en calle de Pelai, La Dreta de l'Eixample, Barcelona</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Estudio</t>
+          <t>Piso</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Estudio en Sant Pere - Santa Caterina i la Ribera</t>
+          <t xml:space="preserve"> La Dreta de l'Eixample</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>93</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7000</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+        <v>2700</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2ª</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -754,7 +770,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Piso en rosellon, 162, L'Antiga Esquerra de l'Eixample, Barcelona</t>
+          <t>Piso en Sant Gervasi - La Bonanova, Barcelona</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -764,20 +780,20 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> L'Antiga Esquerra de l'Eixample</t>
+          <t>Piso en Sant Gervasi - La Bonanova</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>58</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1500</v>
+        <v>1575</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -800,29 +816,37 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Casa o chalet independiente en Sarrià, Barcelona</t>
+          <t>Piso en calle de Pelai, La Dreta de l'Eixample, Barcelona</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Casa</t>
+          <t>Piso</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Casa o chalet independiente en Sarrià</t>
+          <t xml:space="preserve"> La Dreta de l'Eixample</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>109</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>15000</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+        <v>3100</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>5ª</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -838,35 +862,35 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Dúplex en calle de Sants, Sants - Badal, Barcelona</t>
+          <t>Piso en avenida de Gaudí, 47, La Sagrada Família, Barcelona</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Dúplex</t>
+          <t>Piso</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sants - Badal</t>
+          <t xml:space="preserve"> La Sagrada Família</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>87</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2200</v>
+        <v>1400</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>1ª</t>
+          <t>3ª</t>
         </is>
       </c>
     </row>
@@ -884,29 +908,37 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Casa o chalet independiente en Sarrià, Barcelona</t>
+          <t>Piso en calle de Londres, L'Antiga Esquerra de l'Eixample, Barcelona</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Casa</t>
+          <t>Piso</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Casa o chalet independiente en Sarrià</t>
+          <t xml:space="preserve"> L'Antiga Esquerra de l'Eixample</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>230</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9500</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+        <v>5700</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>4ª</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -922,7 +954,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Piso en calle del Marquès de Sentmenat, 65, Les Corts, Barcelona</t>
+          <t>Piso en avenida Diagonal, La Dreta de l'Eixample, Barcelona</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -932,7 +964,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Les Corts</t>
+          <t xml:space="preserve"> La Dreta de l'Eixample</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -941,16 +973,16 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>990</v>
+        <v>1050</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>4ª</t>
+          <t>con</t>
         </is>
       </c>
     </row>
@@ -968,35 +1000,35 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Ático en Pedralbes, Barcelona</t>
+          <t>Dúplex en calle dels Tiradors, Sant Pere - Santa Caterina i la Ribera, Barcelona</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Ático</t>
+          <t>Dúplex</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ático en Pedralbes</t>
+          <t xml:space="preserve"> Sant Pere - Santa Caterina i la Ribera</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>75</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>17000</v>
+        <v>1600</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>1ª</t>
+          <t>5ª</t>
         </is>
       </c>
     </row>
@@ -1014,7 +1046,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Piso en calle de Sant Fructuós, 111, La Font de la Guatlla, Barcelona</t>
+          <t>Piso en calle de Sant Gervasi de Cassoles, Sant Gervasi - La Bonanova, Barcelona</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1024,12 +1056,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> La Font de la Guatlla</t>
+          <t xml:space="preserve"> Sant Gervasi - La Bonanova</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>43</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1037,12 +1069,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>interior</t>
+          <t>1ª</t>
         </is>
       </c>
     </row>
@@ -1060,7 +1092,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Piso en La Dreta de l'Eixample, Barcelona</t>
+          <t>Piso en calle d'En Fontrodona, El Poble Sec - Parc de Montjuïc, Barcelona</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1070,25 +1102,25 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Piso en La Dreta de l'Eixample</t>
+          <t xml:space="preserve"> El Poble Sec - Parc de Montjuïc</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>7500</v>
+        <v>1400</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>5ª</t>
+          <t>2ª</t>
         </is>
       </c>
     </row>
@@ -1106,7 +1138,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Piso en Santa Rosa, Vila de Gràcia, Barcelona</t>
+          <t>Piso en calle de Sant Gervasi de Cassoles, Sant Gervasi - La Bonanova, Barcelona</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1116,25 +1148,25 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vila de Gràcia</t>
+          <t xml:space="preserve"> Sant Gervasi - La Bonanova</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>47</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>2500</v>
+        <v>1575</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2ª</t>
+          <t>1ª</t>
         </is>
       </c>
     </row>
@@ -1152,7 +1184,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Ático en calle de Sepúlveda, Sant Antoni, Barcelona</t>
+          <t>Ático en Balmes, 360, El Putxet i el Farró, Barcelona</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1162,16 +1194,16 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sant Antoni</t>
+          <t xml:space="preserve"> El Putxet i el Farró</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1800</v>
+        <v>2450</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1180,7 +1212,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>7ª</t>
+          <t>5ª</t>
         </is>
       </c>
     </row>
@@ -1198,26 +1230,26 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Piso en avenida Gaudi, La Sagrada Família, Barcelona</t>
+          <t>Ático en Mallorca, 244, La Dreta de l'Eixample, Barcelona</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Piso</t>
+          <t>Ático</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> La Sagrada Família</t>
+          <t xml:space="preserve"> La Dreta de l'Eixample</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>2200</v>
+        <v>2950</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1226,7 +1258,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>4ª</t>
+          <t>5ª</t>
         </is>
       </c>
     </row>
@@ -1244,7 +1276,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Piso en calle de la Reina Amàlia, El Raval, Barcelona</t>
+          <t>Piso en calle d' Ausias March, El Fort Pienc, Barcelona</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1254,25 +1286,25 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> El Raval</t>
+          <t xml:space="preserve"> El Fort Pienc</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>110</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1700</v>
+        <v>1950</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>3ª</t>
+          <t>2ª</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1322,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Piso en calle de les Moles, 10, El Gòtic, Barcelona</t>
+          <t>Piso en avenida Frederic Rahola, 60, La Font d'En Fargues, Barcelona</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1300,25 +1332,25 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> El Gòtic</t>
+          <t xml:space="preserve"> La Font d'En Fargues</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1550</v>
+        <v>1250</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2ª</t>
+          <t>1ª</t>
         </is>
       </c>
     </row>
@@ -1336,7 +1368,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Piso en calle de Pelai, La Dreta de l'Eixample, Barcelona</t>
+          <t>Piso en calle de la Reina Amàlia, Sant Antoni, Barcelona</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1346,16 +1378,16 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> La Dreta de l'Eixample</t>
+          <t xml:space="preserve"> Sant Antoni</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1382,26 +1414,26 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Piso en calle de la Diputació, La Dreta de l'Eixample, Barcelona</t>
+          <t>Dúplex en travesía de Gracia, 25, Sant Gervasi - Galvany, Barcelona</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Piso</t>
+          <t>Dúplex</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> La Dreta de l'Eixample</t>
+          <t xml:space="preserve"> Sant Gervasi - Galvany</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1650</v>
+        <v>2500</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1410,7 +1442,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>con</t>
+          <t>8ª</t>
         </is>
       </c>
     </row>
@@ -1428,7 +1460,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Piso en calle de Pelai, La Dreta de l'Eixample, Barcelona</t>
+          <t>Piso en calle dels Caponata, Sarrià, Barcelona</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1438,25 +1470,25 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> La Dreta de l'Eixample</t>
+          <t xml:space="preserve"> Sarrià</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>103</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>3100</v>
+        <v>2350</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>5ª</t>
+          <t>3ª</t>
         </is>
       </c>
     </row>
@@ -1474,7 +1506,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Piso en calle de Pontevedra, 31, La Barceloneta, Barcelona</t>
+          <t>Piso en calle dels Enamorats, El Camp de l'Arpa del Clot, Barcelona</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1484,25 +1516,25 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> La Barceloneta</t>
+          <t xml:space="preserve"> El Camp de l'Arpa del Clot</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>78</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>1ª</t>
+          <t>3ª</t>
         </is>
       </c>
     </row>
@@ -1520,35 +1552,35 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Piso en calle de Londres, L'Antiga Esquerra de l'Eixample, Barcelona</t>
+          <t>Ático en Gran Via de les Corts Catalanes, Sant Antoni, Barcelona</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Piso</t>
+          <t>Ático</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> L'Antiga Esquerra de l'Eixample</t>
+          <t xml:space="preserve"> Sant Antoni</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>66</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>6000</v>
+        <v>1936</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>4ª</t>
+          <t>6ª</t>
         </is>
       </c>
     </row>
@@ -1566,29 +1598,37 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Ático en riera de sant miquel, 16, Vila de Gràcia, Barcelona</t>
+          <t>Piso en consell de cent, 362, La Dreta de l'Eixample, Barcelona</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Ático</t>
+          <t>Piso</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vila de Gràcia</t>
+          <t xml:space="preserve"> La Dreta de l'Eixample</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>850</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+        <v>2550</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>3ª</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1604,37 +1644,29 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Piso en calle de la Lleona, El Gòtic, Barcelona</t>
+          <t>Estudio en Calabria, La Nova Esquerra de l'Eixample, Barcelona</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Piso</t>
+          <t>Estudio</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> El Gòtic</t>
+          <t xml:space="preserve"> La Nova Esquerra de l'Eixample</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>49</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>2100</v>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>2ª</t>
-        </is>
-      </c>
+        <v>1500</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1650,7 +1682,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Piso en calle de Tordera, 50, Vila de Gràcia, Barcelona</t>
+          <t>Piso en Pla de Palau, 22, Sant Pere - Santa Caterina i la Ribera, Barcelona</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1660,16 +1692,16 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vila de Gràcia</t>
+          <t xml:space="preserve"> Sant Pere - Santa Caterina i la Ribera</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>1200</v>
+        <v>2550</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1678,7 +1710,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>3ª</t>
+          <t>2ª</t>
         </is>
       </c>
     </row>
@@ -1696,26 +1728,26 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Piso en avenida Diagonal, Sant Gervasi - Galvany, Barcelona</t>
+          <t>Ático en calle del Telègraf, El Guinardó, Barcelona</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Piso</t>
+          <t>Ático</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sant Gervasi - Galvany</t>
+          <t xml:space="preserve"> El Guinardó</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>3400</v>
+        <v>2000</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -1724,7 +1756,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>8ª</t>
+          <t>6ª</t>
         </is>
       </c>
     </row>
@@ -1742,7 +1774,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Piso en calle de les Moles, Barcelona, 12, El Gòtic, Barcelona</t>
+          <t>Piso en calle de Mallorca, La Nova Esquerra de l'Eixample, Barcelona</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1752,25 +1784,25 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> El Gòtic</t>
+          <t xml:space="preserve"> La Nova Esquerra de l'Eixample</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>950</v>
+        <v>1800</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>exterior</t>
+          <t>2ª</t>
         </is>
       </c>
     </row>
@@ -1788,37 +1820,29 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Piso en calle de Sant Elies, Sant Gervasi - Galvany, Barcelona</t>
+          <t>Estudio en calle de Pere IV, El Parc i la Llacuna del Poblenou, Barcelona</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Piso</t>
+          <t>Estudio</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sant Gervasi - Galvany</t>
+          <t xml:space="preserve"> El Parc i la Llacuna del Poblenou</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>115</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>2500</v>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>5ª</t>
-        </is>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1834,37 +1858,29 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Piso en avenir, 69, Sant Gervasi - Galvany, Barcelona</t>
+          <t>Estudio en Valencia, La Dreta de l'Eixample, Barcelona</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Piso</t>
+          <t>Estudio</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sant Gervasi - Galvany</t>
+          <t xml:space="preserve"> La Dreta de l'Eixample</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>650</v>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>exterior</t>
-        </is>
-      </c>
+        <v>760</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1880,26 +1896,26 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Ático en calle dels Madrazo, Sant Gervasi - Galvany, Barcelona</t>
+          <t>Estudio en calle de Pere IV, El Parc i la Llacuna del Poblenou, Barcelona</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Ático</t>
+          <t>Estudio</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sant Gervasi - Galvany</t>
+          <t xml:space="preserve"> El Parc i la Llacuna del Poblenou</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>115</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1918,29 +1934,37 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Estudio en calle d'Hartzenbusch, s/n, La Bordeta, Barcelona</t>
+          <t>Ático en avenida Diagonal, La Dreta de l'Eixample, Barcelona</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Estudio</t>
+          <t>Ático</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> La Bordeta</t>
+          <t xml:space="preserve"> La Dreta de l'Eixample</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>800</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+        <v>2100</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>9ª</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1956,26 +1980,26 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Ático en calle Francesc Pérez Cabrero, Sant Gervasi - Galvany, Barcelona</t>
+          <t>Piso en Sant Gervasi - Galvany, Barcelona</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Ático</t>
+          <t>Piso</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sant Gervasi - Galvany</t>
+          <t>Piso en Sant Gervasi - Galvany</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>180</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>2400</v>
+        <v>6500</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -1984,7 +2008,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>8ª</t>
+          <t>2ª</t>
         </is>
       </c>
     </row>
@@ -2002,7 +2026,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Piso en calle d'Espronceda, 67, El Poblenou, Barcelona</t>
+          <t>Piso en calle de Balcells, El Camp d'En Grassot i Gràcia Nova, Barcelona</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2012,20 +2036,20 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> El Poblenou</t>
+          <t xml:space="preserve"> El Camp d'En Grassot i Gràcia Nova</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>1500</v>
+        <v>860</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2048,26 +2072,26 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Ático en calle de Manacor, 24, El Putxet i el Farró, Barcelona</t>
+          <t>Piso en calle Costa Pacheco, 9, Sant Genís Dels Agudells - Montbau, Barcelona</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Ático</t>
+          <t>Piso</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> El Putxet i el Farró</t>
+          <t xml:space="preserve"> Sant Genís Dels Agudells - Montbau</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>71</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>1895</v>
+        <v>1100</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -2076,7 +2100,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>5ª</t>
+          <t>2ª</t>
         </is>
       </c>
     </row>
@@ -2094,7 +2118,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Piso en Vallhonrat, 30, El Poble Sec - Parc de Montjuïc, Barcelona</t>
+          <t>Piso en calle d'Elkano, El Poble Sec - Parc de Montjuïc, Barcelona</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2109,11 +2133,11 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>63</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>1790</v>
+        <v>950</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -2122,7 +2146,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>2ª</t>
+          <t>1ª</t>
         </is>
       </c>
     </row>
@@ -2140,7 +2164,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Piso en rambla de Catalunya, La Dreta de l'Eixample, Barcelona</t>
+          <t>Piso en Mandri, Sant Gervasi - La Bonanova, Barcelona</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2150,16 +2174,16 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> La Dreta de l'Eixample</t>
+          <t xml:space="preserve"> Sant Gervasi - La Bonanova</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>130</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>4490</v>
+        <v>2175</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -2168,7 +2192,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>1ª</t>
+          <t>exterior</t>
         </is>
       </c>
     </row>
@@ -2186,7 +2210,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Piso en calle de Wellington, El Parc i la Llacuna del Poblenou, Barcelona</t>
+          <t>Piso en avenida de la Mare de Déu de Montserrat, El Guinardó, Barcelona</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2196,25 +2220,25 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> El Parc i la Llacuna del Poblenou</t>
+          <t xml:space="preserve"> El Guinardó</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>48</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>1200</v>
+        <v>975</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>2ª</t>
+          <t>3ª</t>
         </is>
       </c>
     </row>
@@ -2232,26 +2256,26 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Ático en La Nova Esquerra de l'Eixample, Barcelona</t>
+          <t>Piso en calle de Sugranyes, Sants - Badal, Barcelona</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Ático</t>
+          <t>Piso</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Ático en La Nova Esquerra de l'Eixample</t>
+          <t xml:space="preserve"> Sants - Badal</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>75</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>2100</v>
+        <v>1800</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -2260,7 +2284,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>7ª</t>
+          <t>2ª</t>
         </is>
       </c>
     </row>
@@ -2278,7 +2302,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Piso en calle del Capitán Arenas, Pedralbes, Barcelona</t>
+          <t>Piso en Av. de Pompeu Fabra, La Salut, Barcelona</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2288,25 +2312,25 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pedralbes</t>
+          <t xml:space="preserve"> La Salut</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>1500</v>
+        <v>890</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>2ª</t>
+          <t>1ª</t>
         </is>
       </c>
     </row>
@@ -2324,35 +2348,35 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Piso en calle de Torns, Sants - Badal, Barcelona</t>
+          <t>Ático en calle d'Entença, 297, Les Corts, Barcelona</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Piso</t>
+          <t>Ático</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sants - Badal</t>
+          <t xml:space="preserve"> Les Corts</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>102</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>2ª</t>
+          <t>7ª</t>
         </is>
       </c>
     </row>
@@ -2370,37 +2394,29 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Piso en avenida de la Mare de Déu de Montserrat, 165, El Guinardó, Barcelona</t>
+          <t>Estudio en Sant Gervasi - La Bonanova, Barcelona</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Piso</t>
+          <t>Estudio</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> El Guinardó</t>
+          <t>Estudio en Sant Gervasi - La Bonanova</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>41</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>1200</v>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>5ª</t>
-        </is>
-      </c>
+        <v>1100</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2416,35 +2432,35 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Ático en calle de Sants, Sants - Badal, Barcelona</t>
+          <t>Piso en calle del Rector Ubach, Sant Gervasi - Galvany, Barcelona</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Ático</t>
+          <t>Piso</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sants - Badal</t>
+          <t xml:space="preserve"> Sant Gervasi - Galvany</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>111</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>7ª</t>
+          <t>exterior</t>
         </is>
       </c>
     </row>
@@ -2462,7 +2478,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Piso en avenida de la Riera de Cassoles, s/n, Vila de Gràcia, Barcelona</t>
+          <t>Piso en calle de Muntaner, Sant Gervasi - La Bonanova, Barcelona</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2472,16 +2488,16 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vila de Gràcia</t>
+          <t xml:space="preserve"> Sant Gervasi - La Bonanova</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>1800</v>
+        <v>1250</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -2490,7 +2506,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>2ª</t>
+          <t>4ª</t>
         </is>
       </c>
     </row>
@@ -2508,7 +2524,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Piso en paseo de García Faria, Diagonal Mar i el Front Marítim del Poblenou, Barcelona</t>
+          <t>Piso en calle de Badajoz, El Poblenou, Barcelona</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2518,25 +2534,25 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Diagonal Mar i el Front Marítim del Poblenou</t>
+          <t xml:space="preserve"> El Poblenou</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>6500</v>
+        <v>1100</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>13ª</t>
+          <t>2ª</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2570,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Piso en paseo del Taulat, El Besòs, Barcelona</t>
+          <t>Piso en avenida Diagonal, 452, Vila de Gràcia, Barcelona</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2564,25 +2580,25 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> El Besòs</t>
+          <t xml:space="preserve"> Vila de Gràcia</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>72</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>4000</v>
+        <v>1150</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>10ª</t>
+          <t>2ª</t>
         </is>
       </c>
     </row>
@@ -2600,7 +2616,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Piso en ronda Sant Pere, La Dreta de l'Eixample, Barcelona</t>
+          <t>Piso en calle del Rector Triadó, Hostafrancs, Barcelona</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2610,25 +2626,25 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> La Dreta de l'Eixample</t>
+          <t xml:space="preserve"> Hostafrancs</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>2300</v>
+        <v>800</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>5ª</t>
+          <t>1ª</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2662,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Piso en avenida Diagonal, La Sagrada Família, Barcelona</t>
+          <t>Piso en rambla Poblenou, El Poblenou, Barcelona</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2656,16 +2672,16 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> La Sagrada Família</t>
+          <t xml:space="preserve"> El Poblenou</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>2000</v>
+        <v>2750</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -2674,7 +2690,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>2ª</t>
+          <t>4ª</t>
         </is>
       </c>
     </row>
@@ -2692,7 +2708,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Piso en calle de Girona, La Dreta de l'Eixample, Barcelona</t>
+          <t>Piso en calle misser ferrer, s/n, El Gòtic, Barcelona</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2702,16 +2718,16 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> La Dreta de l'Eixample</t>
+          <t xml:space="preserve"> El Gòtic</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>130</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -2720,7 +2736,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>2ª</t>
+          <t>3ª</t>
         </is>
       </c>
     </row>
@@ -2738,7 +2754,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Piso en calle Joaquim Valls, La Prosperitat, Barcelona</t>
+          <t>Piso en calle de Sant Pere Més Baix, Sant Pere - Santa Caterina i la Ribera, Barcelona</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2748,16 +2764,16 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> La Prosperitat</t>
+          <t xml:space="preserve"> Sant Pere - Santa Caterina i la Ribera</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>1590</v>
+        <v>2500</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -2766,7 +2782,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>2ª</t>
+          <t>5ª</t>
         </is>
       </c>
     </row>
@@ -2784,7 +2800,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Piso en calle Major de Sarrià, Sarrià, Barcelona</t>
+          <t>Piso en d'Ausiàs Marc, s/n, La Dreta de l'Eixample, Barcelona</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2794,25 +2810,25 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sarrià</t>
+          <t xml:space="preserve"> La Dreta de l'Eixample</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>162</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>2360</v>
+        <v>15000</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>2ª</t>
+          <t>5ª</t>
         </is>
       </c>
     </row>
@@ -2830,7 +2846,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Piso en calle d'Aiguablava, 49, La Trinitat Nova, Barcelona</t>
+          <t>Piso en calle del Doctor Giné i Partagàs, Barcelona, La Barceloneta, Barcelona</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2840,20 +2856,20 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> La Trinitat Nova</t>
+          <t xml:space="preserve"> La Barceloneta</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>890</v>
+        <v>1850</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2876,7 +2892,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Piso en calle d'en Copons, El Gòtic, Barcelona</t>
+          <t>Piso en calle d' Ausias March, s/n, El Fort Pienc, Barcelona</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2886,16 +2902,16 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> El Gòtic</t>
+          <t xml:space="preserve"> El Fort Pienc</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>145</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>2450</v>
+        <v>13500</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -2904,7 +2920,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>1ª</t>
+          <t>3ª</t>
         </is>
       </c>
     </row>
@@ -2922,7 +2938,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Piso en Gignas, 26, El Gòtic, Barcelona</t>
+          <t>Piso en calle de Lepanto, La Sagrada Família, Barcelona</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2932,16 +2948,16 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> El Gòtic</t>
+          <t xml:space="preserve"> La Sagrada Família</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>2295</v>
+        <v>1750</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -2950,7 +2966,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>3ª</t>
+          <t>exterior</t>
         </is>
       </c>
     </row>
@@ -2968,26 +2984,26 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Ático en calle de Sant Hermenegild, El Putxet i el Farró, Barcelona</t>
+          <t>Piso en rambla de Catalunya, La Dreta de l'Eixample, Barcelona</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Ático</t>
+          <t>Piso</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> El Putxet i el Farró</t>
+          <t xml:space="preserve"> La Dreta de l'Eixample</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>61</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>1450</v>
+        <v>1700</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -2996,7 +3012,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>5ª</t>
+          <t>1ª</t>
         </is>
       </c>
     </row>
@@ -3014,7 +3030,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Piso en paseo de Calvell, El Poblenou, Barcelona</t>
+          <t>Piso en calle de Padilla, La Sagrada Família, Barcelona</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3024,25 +3040,25 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> El Poblenou</t>
+          <t xml:space="preserve"> La Sagrada Família</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>132</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>1950</v>
+        <v>1800</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>2ª</t>
+          <t>1ª</t>
         </is>
       </c>
     </row>
@@ -3060,26 +3076,26 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Piso en calle de Tapioles, 51, El Poble Sec - Parc de Montjuïc, Barcelona</t>
+          <t>Ático en calle de Santaló, Sant Gervasi - Galvany, Barcelona</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Piso</t>
+          <t>Ático</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> El Poble Sec - Parc de Montjuïc</t>
+          <t xml:space="preserve"> Sant Gervasi - Galvany</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>75</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -3088,7 +3104,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>3ª</t>
+          <t>7ª</t>
         </is>
       </c>
     </row>
@@ -3106,7 +3122,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Piso en calle de Miquel Bleach, 10, Hostafrancs, Barcelona</t>
+          <t>Piso en via Laietana, Sant Pere - Santa Caterina i la Ribera, Barcelona</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3116,25 +3132,25 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hostafrancs</t>
+          <t xml:space="preserve"> Sant Pere - Santa Caterina i la Ribera</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>78</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>1ª</t>
+          <t>2ª</t>
         </is>
       </c>
     </row>
@@ -3152,7 +3168,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Piso en calle del Doctor Giné i Partagàs, 14, La Barceloneta, Barcelona</t>
+          <t>Piso en El Putxet i el Farró, Barcelona</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3162,25 +3178,25 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> La Barceloneta</t>
+          <t>Piso en El Putxet i el Farró</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>1000</v>
+        <v>1550</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>3ª</t>
+          <t>1ª</t>
         </is>
       </c>
     </row>
@@ -3198,7 +3214,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Piso en calle de los Voluntarios Catalanes, 31, Valdeacederas, Madrid</t>
+          <t>Piso en C. del Pico de Beriáin, 15, Casco Histórico de Vallecas, Madrid</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3208,16 +3224,16 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Valdeacederas</t>
+          <t xml:space="preserve"> Casco Histórico de Vallecas</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>950</v>
+        <v>900</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -3226,7 +3242,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>1ª</t>
+          <t>3ª</t>
         </is>
       </c>
     </row>
@@ -3244,35 +3260,35 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Ático en calle de Vicente Blasco Ibáñez, Sanchinarro, Madrid</t>
+          <t>Piso en Recoletos, Madrid</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Ático</t>
+          <t>Piso</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sanchinarro</t>
+          <t>Piso en Recoletos</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>47</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>2900</v>
+        <v>2000</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>5ª</t>
+          <t>con</t>
         </is>
       </c>
     </row>
@@ -3290,7 +3306,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Piso en Imperial, Madrid</t>
+          <t>Piso en calle Vicente Muzas, Colina, Madrid</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3300,25 +3316,25 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Piso en Imperial</t>
+          <t xml:space="preserve"> Colina</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>3ª</t>
+          <t>2ª</t>
         </is>
       </c>
     </row>
@@ -3336,35 +3352,35 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Piso en Lista, Madrid</t>
+          <t>Dúplex en Valdemarín, Madrid</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Piso</t>
+          <t>Dúplex</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Piso en Lista</t>
+          <t>Dúplex en Valdemarín</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>200</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>2700</v>
+        <v>2450</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>2ª</t>
+          <t>con</t>
         </is>
       </c>
     </row>
@@ -3382,7 +3398,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Piso en calle Sorgo, Valdeacederas, Madrid</t>
+          <t>Piso en calle de Santa María, 30, Huertas-Cortes, Madrid</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3392,16 +3408,16 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Valdeacederas</t>
+          <t xml:space="preserve"> Huertas-Cortes</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>38</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -3410,7 +3426,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>exterior</t>
+          <t>interior</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3490,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Piso en calle de Antonio Palomino, 4, Gaztambide, Madrid</t>
+          <t>Piso en calle de Jaén, 38, Cuatro Caminos, Madrid</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3484,25 +3500,25 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gaztambide</t>
+          <t xml:space="preserve"> Cuatro Caminos</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>1550</v>
+        <v>1400</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>5ª</t>
+          <t>1ª</t>
         </is>
       </c>
     </row>
@@ -3520,7 +3536,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Piso en Lista, Madrid</t>
+          <t>Piso en Nuevos Ministerios-Ríos Rosas, Madrid</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3530,16 +3546,16 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Piso en Lista</t>
+          <t>Piso en Nuevos Ministerios-Ríos Rosas</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>2300</v>
+        <v>3000</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -3548,7 +3564,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>2ª</t>
+          <t>con</t>
         </is>
       </c>
     </row>
@@ -3566,7 +3582,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Piso en calle Neguilla, 4, Puerta del Ángel, Madrid</t>
+          <t>Piso en calle de Faustino Osorio, Los Cármenes, Madrid</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3576,16 +3592,16 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Puerta del Ángel</t>
+          <t xml:space="preserve"> Los Cármenes</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>43</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>1100</v>
+        <v>850</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -3594,7 +3610,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>exterior</t>
+          <t>1ª</t>
         </is>
       </c>
     </row>
@@ -3612,7 +3628,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Piso en Recoletos, Madrid</t>
+          <t>Piso en Cuzco-Castillejos, Madrid</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3622,20 +3638,20 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Piso en Recoletos</t>
+          <t>Piso en Cuzco-Castillejos</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>143</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>2000</v>
+        <v>2900</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3658,7 +3674,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Piso en calle de Aracne, 29, Rejas, Madrid</t>
+          <t>Piso en calle de Faustino Osorio, Los Cármenes, Madrid</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3668,25 +3684,25 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rejas</t>
+          <t xml:space="preserve"> Los Cármenes</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>43</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>1500</v>
+        <v>875</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>2ª</t>
+          <t>exterior</t>
         </is>
       </c>
     </row>
@@ -3704,30 +3720,30 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Dúplex en Valdemarín, Madrid</t>
+          <t>Piso en Huertas-Cortes, Madrid</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Dúplex</t>
+          <t>Piso</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Dúplex en Valdemarín</t>
+          <t>Piso en Huertas-Cortes</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>2450</v>
+        <v>2500</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3750,7 +3766,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Piso en calle de Virgen de los Reyes, 26, Concepción, Madrid</t>
+          <t>Piso en calle de Gasteria, San Isidro, Madrid</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3760,25 +3776,25 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Concepción</t>
+          <t xml:space="preserve"> San Isidro</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>98</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>950</v>
+        <v>1400</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>exterior</t>
+          <t>3ª</t>
         </is>
       </c>
     </row>
@@ -3796,7 +3812,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Piso en Cuzco-Castillejos, Madrid</t>
+          <t>Piso en calle de Núñez de Balboa, Recoletos, Madrid</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3806,16 +3822,16 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Piso en Cuzco-Castillejos</t>
+          <t xml:space="preserve"> Recoletos</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>268</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>2900</v>
+        <v>7500</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -3824,7 +3840,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>con</t>
+          <t>6ª</t>
         </is>
       </c>
     </row>
@@ -3842,35 +3858,35 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Piso en calle Leopoldo Alas Clarín, Peñagrande, Madrid</t>
+          <t>Ático en calle de Martínez Izquierdo, 53, Guindalera, Madrid</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Piso</t>
+          <t>Ático</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Peñagrande</t>
+          <t xml:space="preserve"> Guindalera</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>2800</v>
+        <v>1080</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>7ª</t>
+          <t>6ª</t>
         </is>
       </c>
     </row>
@@ -3888,37 +3904,29 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Piso en calle de Núñez de Balboa, Recoletos, Madrid</t>
+          <t>Estudio en calle de Juan de Olías, 26, Cuatro Caminos, Madrid</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Piso</t>
+          <t>Estudio</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Recoletos</t>
+          <t xml:space="preserve"> Cuatro Caminos</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>71</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>7500</v>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>6ª</t>
-        </is>
-      </c>
+        <v>975</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3934,7 +3942,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Piso en calle Alcala, 123, Goya, Madrid</t>
+          <t>Piso en calle Orellana, 12, Chueca-Justicia, Madrid</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3944,25 +3952,25 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Goya</t>
+          <t xml:space="preserve"> Chueca-Justicia</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>180</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>2100</v>
+        <v>4400</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>2ª</t>
+          <t>1ª</t>
         </is>
       </c>
     </row>
@@ -3980,26 +3988,26 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Ático en calle del Pintor Ignacio de Zuloaga, 2, Sanchinarro, Madrid</t>
+          <t>Piso en calle del Doctor Fleming, 39, Nueva España, Madrid</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Ático</t>
+          <t>Piso</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sanchinarro</t>
+          <t xml:space="preserve"> Nueva España</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>122</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>1395</v>
+        <v>1930</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
@@ -4008,7 +4016,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>ascensor</t>
+          <t>1ª</t>
         </is>
       </c>
     </row>
@@ -4026,7 +4034,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Piso en calle de López de Aranda, 7, Concepción, Madrid</t>
+          <t>Piso en calle de Don Ramón de la Cruz, 113, Lista, Madrid</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4036,25 +4044,25 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Concepción</t>
+          <t xml:space="preserve"> Lista</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>1150</v>
+        <v>3200</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>2ª</t>
+          <t>1ª</t>
         </is>
       </c>
     </row>
@@ -4072,7 +4080,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Piso en Huertas-Cortes, Madrid</t>
+          <t>Piso en calle del General Pardiñas, Goya, Madrid</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4082,7 +4090,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Piso en Huertas-Cortes</t>
+          <t xml:space="preserve"> Goya</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -4091,7 +4099,7 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -4100,7 +4108,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>con</t>
+          <t>3ª</t>
         </is>
       </c>
     </row>
@@ -4118,7 +4126,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Piso en calle de las Huertas, s/n, Huertas-Cortes, Madrid</t>
+          <t>Piso en calle del Arenal, Sol, Madrid</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4128,16 +4136,16 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Huertas-Cortes</t>
+          <t xml:space="preserve"> Sol</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>3100</v>
+        <v>2650</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -4146,7 +4154,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>3ª</t>
+          <t>4ª</t>
         </is>
       </c>
     </row>
@@ -4164,26 +4172,26 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Estudio en calle de Juan de Olías, 26, Cuatro Caminos, Madrid</t>
+          <t>Chalet adosado en Conde Orgaz-Piovera, Madrid</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Estudio</t>
+          <t>Chalet</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cuatro Caminos</t>
+          <t>Chalet adosado en Conde Orgaz-Piovera</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>380</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>975</v>
+        <v>5200</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -4202,7 +4210,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Piso en calle del Doctor Esquerdo, 102, Niño Jesús, Madrid</t>
+          <t>Piso en calle Valmojado, 157, Aluche, Madrid</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4212,16 +4220,16 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Niño Jesús</t>
+          <t xml:space="preserve"> Aluche</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
@@ -4230,7 +4238,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>2ª</t>
+          <t>5ª</t>
         </is>
       </c>
     </row>
@@ -4248,7 +4256,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Piso en calle del Doctor Fleming, 39, Nueva España, Madrid</t>
+          <t>Piso en calle Félix Boix, 8, Nueva España, Madrid</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4263,20 +4271,20 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>203</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>1930</v>
+        <v>2998</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>1ª</t>
+          <t>5ª</t>
         </is>
       </c>
     </row>
@@ -4294,7 +4302,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Piso en calle de Villanueva, Recoletos, Madrid</t>
+          <t>Piso en calle de la Milagrosa, Puerta del Ángel, Madrid</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4304,16 +4312,16 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Recoletos</t>
+          <t xml:space="preserve"> Puerta del Ángel</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>48</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
@@ -4322,7 +4330,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>2ª</t>
+          <t>1ª</t>
         </is>
       </c>
     </row>
@@ -4340,7 +4348,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Piso en calle del General Pardiñas, Goya, Madrid</t>
+          <t>Piso en calle Félix Boix, 6, Nueva España, Madrid</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4350,16 +4358,16 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Goya</t>
+          <t xml:space="preserve"> Nueva España</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>117</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>2400</v>
+        <v>2169</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
@@ -4368,7 +4376,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>3ª</t>
+          <t>6ª</t>
         </is>
       </c>
     </row>
@@ -4386,7 +4394,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Piso en calle isidra jiménez, 29, Pradolongo, Madrid</t>
+          <t>Piso en calle de Samaniego, 20, Rejas, Madrid</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4396,16 +4404,16 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pradolongo</t>
+          <t xml:space="preserve"> Rejas</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
@@ -4414,7 +4422,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>2ª</t>
+          <t>1ª</t>
         </is>
       </c>
     </row>
@@ -4432,29 +4440,37 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Chalet adosado en Conde Orgaz-Piovera, Madrid</t>
+          <t>Ático en calle del Conde de Peñalver, Goya, Madrid</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Chalet</t>
+          <t>Ático</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Chalet adosado en Conde Orgaz-Piovera</t>
+          <t xml:space="preserve"> Goya</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>200</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>5200</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+        <v>3950</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>6ª</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4470,12 +4486,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Piso en plaza de Colón, s/n, Recoletos, Madrid</t>
+          <t>Ático en calle de Villanueva, Recoletos, Madrid</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Piso</t>
+          <t>Ático</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -4485,11 +4501,11 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>64</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>2799</v>
+        <v>2850</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
@@ -4498,7 +4514,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>5ª</t>
+          <t>8ª</t>
         </is>
       </c>
     </row>
@@ -4516,37 +4532,29 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Piso en calle del Pintor Ignacio de Zuloaga, 2, Sanchinarro, Madrid</t>
+          <t>Estudio en Tres peces, Lavapiés-Embajadores, Madrid</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Piso</t>
+          <t>Estudio</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sanchinarro</t>
+          <t xml:space="preserve"> Lavapiés-Embajadores</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>1345</v>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>ascensor</t>
-        </is>
-      </c>
+        <v>950</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4562,7 +4570,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Piso en calle Arcos de la Frontera, 32, Fátima - Campiñuela, Córdoba</t>
+          <t>Piso en Judería - San Basilio, Córdoba</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4572,25 +4580,25 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fátima - Campiñuela</t>
+          <t>Piso en Judería - San Basilio</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>550</v>
+        <v>530</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>1ª</t>
+          <t>2ª</t>
         </is>
       </c>
     </row>
@@ -4608,35 +4616,35 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Dúplex en calle Platero Rodrigo de León, 17, Carretera Trassierra - Colonia de la Paz, Córdoba</t>
+          <t>Piso en Barrionuevo, Casco Histórico - Corredera - Ribera, Córdoba</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Dúplex</t>
+          <t>Piso</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Carretera Trassierra - Colonia de la Paz</t>
+          <t xml:space="preserve"> Casco Histórico - Corredera - Ribera</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>1ª</t>
+          <t>interior</t>
         </is>
       </c>
     </row>
@@ -4654,7 +4662,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Piso en calle Batalla de los Cueros, 17, La Viñuela, Córdoba</t>
+          <t>Piso en plaza de los Carrillos, s/n, Centro, Córdoba</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4664,16 +4672,16 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> La Viñuela</t>
+          <t xml:space="preserve"> Centro</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>530</v>
+        <v>825</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
@@ -4682,7 +4690,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>2ª</t>
+          <t>1ª</t>
         </is>
       </c>
     </row>
@@ -4700,7 +4708,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Piso en Acera San Julián, 8, Campo de la Verdad, Córdoba</t>
+          <t>Piso en calle Sagunto, Levante, Córdoba</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4710,25 +4718,25 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Campo de la Verdad</t>
+          <t xml:space="preserve"> Levante</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>75</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>550</v>
+        <v>490</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>1ª</t>
+          <t>4ª</t>
         </is>
       </c>
     </row>
@@ -4746,7 +4754,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Piso en calle Virgen del Perpetuo Socorro, 12, Ciudad Jardín, Córdoba</t>
+          <t>Piso en Fátima - Campiñuela, Córdoba</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4756,16 +4764,16 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ciudad Jardín</t>
+          <t>Piso en Fátima - Campiñuela</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>112</t>
         </is>
       </c>
       <c r="H96" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
@@ -4774,7 +4782,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>6ª</t>
+          <t>3ª</t>
         </is>
       </c>
     </row>
@@ -4792,7 +4800,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Piso en Tablero, Córdoba</t>
+          <t>Piso en Pintora Maruja Mallo, Tablero, Córdoba</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4802,25 +4810,25 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Piso en Tablero</t>
+          <t xml:space="preserve"> Tablero</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>71</t>
         </is>
       </c>
       <c r="H97" t="n">
-        <v>2000</v>
+        <v>700</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>3ª</t>
+          <t>4ª</t>
         </is>
       </c>
     </row>
@@ -4838,7 +4846,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Piso en calle de Damasco, Ciudad Jardín, Córdoba</t>
+          <t>Piso en Huerta de la Reina, Córdoba</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4848,25 +4856,25 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ciudad Jardín</t>
+          <t>Piso en Huerta de la Reina</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>68</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>4ª</t>
+          <t>interior</t>
         </is>
       </c>
     </row>
@@ -4884,35 +4892,35 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Piso en calle Pintora María Blanchard, Tablero, Córdoba</t>
+          <t>Chalet adosado en Naranjo - Mirabueno, Córdoba</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Piso</t>
+          <t>Chalet</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tablero</t>
+          <t>Chalet adosado en Naranjo - Mirabueno</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>280</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>995</v>
+        <v>1300</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>2ª</t>
+          <t>dic</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4938,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Piso en calle Conquistador Ruiz Tafur, La Viñuela, Córdoba</t>
+          <t>Piso en calle Platero Pedro de Bares, 35, El Cairo, Córdoba</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4940,25 +4948,25 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> La Viñuela</t>
+          <t xml:space="preserve"> El Cairo</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>85</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>500</v>
+        <v>660</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>2ª</t>
+          <t>4ª</t>
         </is>
       </c>
     </row>
@@ -4976,7 +4984,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Piso en acera fuente de salud, 20, Valdeolleros - Zumbacón - Camping, Córdoba</t>
+          <t>Piso en calle Santa María de Trassierra, 58, Carretera Trassierra - Colonia de la Paz, Córdoba</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4986,16 +4994,16 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Valdeolleros - Zumbacón - Camping</t>
+          <t xml:space="preserve"> Carretera Trassierra - Colonia de la Paz</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>815</v>
+        <v>650</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
@@ -5004,7 +5012,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>6ª</t>
+          <t>19ª</t>
         </is>
       </c>
     </row>
@@ -5022,7 +5030,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Piso en Ciudad Jardín, Córdoba</t>
+          <t>Piso en calle Arcos de la Frontera, 32, Fátima - Campiñuela, Córdoba</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5032,25 +5040,25 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Piso en Ciudad Jardín</t>
+          <t xml:space="preserve"> Fátima - Campiñuela</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>76</t>
         </is>
       </c>
       <c r="H102" t="n">
-        <v>620</v>
+        <v>550</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>6ª</t>
+          <t>1ª</t>
         </is>
       </c>
     </row>
@@ -5068,35 +5076,35 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Piso en glorieta de los paises balticos, Cañero - Fidiana, Córdoba</t>
+          <t>Dúplex en calle Platero Rodrigo de León, 17, Carretera Trassierra - Colonia de la Paz, Córdoba</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Piso</t>
+          <t>Dúplex</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cañero - Fidiana</t>
+          <t xml:space="preserve"> Carretera Trassierra - Colonia de la Paz</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H103" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>2ª</t>
+          <t>1ª</t>
         </is>
       </c>
     </row>
@@ -5114,7 +5122,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Piso en bailarina anna pavlova14, s/n, Tablero, Córdoba</t>
+          <t>Piso en calle Batalla de los Cueros, 17, La Viñuela, Córdoba</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5124,16 +5132,16 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tablero</t>
+          <t xml:space="preserve"> La Viñuela</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H104" t="n">
-        <v>900</v>
+        <v>530</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
@@ -5142,7 +5150,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>4ª</t>
+          <t>2ª</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5168,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Piso en avenida de San José de Calasanz, s/n, Brillante, Córdoba</t>
+          <t>Piso en Acera San Julián, 8, Campo de la Verdad, Córdoba</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5170,25 +5178,25 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brillante</t>
+          <t xml:space="preserve"> Campo de la Verdad</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H105" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>exterior</t>
+          <t>1ª</t>
         </is>
       </c>
     </row>
@@ -5206,7 +5214,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Piso en La Viñuela, Córdoba</t>
+          <t>Piso en plaza del Moreno, 4, San Cayetano, Córdoba</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5216,25 +5224,25 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Piso en La Viñuela</t>
+          <t xml:space="preserve"> San Cayetano</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H106" t="n">
-        <v>600</v>
+        <v>725</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>3ª</t>
+          <t>1ª</t>
         </is>
       </c>
     </row>
@@ -5252,7 +5260,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Piso en avenida del gran capitán, 45, El Vial - Ronda de Tejares, Córdoba</t>
+          <t>Piso en calle de Damasco, Ciudad Jardín, Córdoba</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5262,25 +5270,25 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> El Vial - Ronda de Tejares</t>
+          <t xml:space="preserve"> Ciudad Jardín</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H107" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>1ª</t>
+          <t>4ª</t>
         </is>
       </c>
     </row>
@@ -5298,7 +5306,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Piso en calle Bailarina Anna Pavlova, 11, Noreña - Turruñuelos, Córdoba</t>
+          <t>Piso en El Vial - Ronda de Tejares, Córdoba</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -5308,25 +5316,25 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Noreña - Turruñuelos</t>
+          <t>Piso en El Vial - Ronda de Tejares</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>105</t>
         </is>
       </c>
       <c r="H108" t="n">
-        <v>875</v>
+        <v>850</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>2ª</t>
+          <t>3ª</t>
         </is>
       </c>
     </row>
@@ -5344,7 +5352,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Piso en ronda de los Tejares, 18, El Vial - Ronda de Tejares, Córdoba</t>
+          <t>Piso en calle Pintora María Blanchard, Tablero, Córdoba</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -5354,25 +5362,25 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> El Vial - Ronda de Tejares</t>
+          <t xml:space="preserve"> Tablero</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>82</t>
         </is>
       </c>
       <c r="H109" t="n">
-        <v>850</v>
+        <v>995</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>6ª</t>
+          <t>2ª</t>
         </is>
       </c>
     </row>
@@ -5390,7 +5398,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Piso en acera fuente de la salud, 20, Valdeolleros - Zumbacón - Camping, Córdoba</t>
+          <t>Piso en calle Conquistador Ruiz Tafur, La Viñuela, Córdoba</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -5400,25 +5408,25 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Valdeolleros - Zumbacón - Camping</t>
+          <t xml:space="preserve"> La Viñuela</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H110" t="n">
-        <v>990</v>
+        <v>500</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>6ª</t>
+          <t>2ª</t>
         </is>
       </c>
     </row>
@@ -5436,7 +5444,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Piso en El Vial - Ronda de Tejares, Córdoba</t>
+          <t>Piso en acera fuente de salud, 20, Valdeolleros - Zumbacón - Camping, Córdoba</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5446,25 +5454,25 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Piso en El Vial - Ronda de Tejares</t>
+          <t xml:space="preserve"> Valdeolleros - Zumbacón - Camping</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>67</t>
         </is>
       </c>
       <c r="H111" t="n">
-        <v>1010</v>
+        <v>815</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>3ª</t>
+          <t>6ª</t>
         </is>
       </c>
     </row>
@@ -5482,7 +5490,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Piso en Acera Fuente de la Salud, s/n, Valdeolleros - Zumbacón - Camping, Córdoba</t>
+          <t>Piso en bailarina anna pavlova14, s/n, Tablero, Córdoba</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5492,25 +5500,25 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Valdeolleros - Zumbacón - Camping</t>
+          <t xml:space="preserve"> Tablero</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H112" t="n">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>5ª</t>
+          <t>4ª</t>
         </is>
       </c>
     </row>
@@ -5528,7 +5536,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Piso en Acera Fuente de la salud, 20, Valdeolleros - Zumbacón - Camping, Córdoba</t>
+          <t>Piso en Ciudad Jardín, Córdoba</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5538,25 +5546,25 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Valdeolleros - Zumbacón - Camping</t>
+          <t>Piso en Ciudad Jardín</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H113" t="n">
-        <v>845</v>
+        <v>620</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>3ª</t>
+          <t>6ª</t>
         </is>
       </c>
     </row>
@@ -5574,7 +5582,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Piso en Acera fuente de la salud, 1, Valdeolleros - Zumbacón - Camping, Córdoba</t>
+          <t>Piso en Av. del Gran Capitán, s/n, El Vial - Ronda de Tejares, Córdoba</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5584,25 +5592,25 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Valdeolleros - Zumbacón - Camping</t>
+          <t xml:space="preserve"> El Vial - Ronda de Tejares</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>130</t>
         </is>
       </c>
       <c r="H114" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>6ª</t>
+          <t>1ª</t>
         </is>
       </c>
     </row>
@@ -5620,7 +5628,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Piso en acera fuente de la salud, 20, Valdeolleros - Zumbacón - Camping, Córdoba</t>
+          <t>Piso en calle Escritor Conde de Zamora, 10, Vistalegre - Parque Cruz - Universidades, Córdoba</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5630,16 +5638,16 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Valdeolleros - Zumbacón - Camping</t>
+          <t xml:space="preserve"> Vistalegre - Parque Cruz - Universidades</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H115" t="n">
-        <v>825</v>
+        <v>900</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
@@ -5648,7 +5656,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>7ª</t>
+          <t>5ª</t>
         </is>
       </c>
     </row>
@@ -5666,35 +5674,35 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Dúplex en avenida de Abderraman I, 5, Tablero, Córdoba</t>
+          <t>Piso en avenida del gran capitán, 45, El Vial - Ronda de Tejares, Córdoba</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Dúplex</t>
+          <t>Piso</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tablero</t>
+          <t xml:space="preserve"> El Vial - Ronda de Tejares</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>130</t>
         </is>
       </c>
       <c r="H116" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>2ª</t>
+          <t>1ª</t>
         </is>
       </c>
     </row>
@@ -5712,7 +5720,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Piso en Casco Histórico - Corredera - Ribera, Córdoba</t>
+          <t>Piso en avenida de San José de Calasanz, s/n, Brillante, Córdoba</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -5722,12 +5730,12 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Piso en Casco Histórico - Corredera - Ribera</t>
+          <t xml:space="preserve"> Brillante</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H117" t="n">
@@ -5735,12 +5743,12 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>2ª</t>
+          <t>exterior</t>
         </is>
       </c>
     </row>
@@ -5758,37 +5766,29 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Piso en avenida de los Almogávares, Santa Rosa - San José, Córdoba</t>
+          <t>Estudio en Huerta de la Reina, Córdoba</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Piso</t>
+          <t>Estudio</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Santa Rosa - San José</t>
+          <t>Estudio en Huerta de la Reina</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H118" t="n">
-        <v>600</v>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>2ª</t>
-        </is>
-      </c>
+        <v>525</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5804,29 +5804,37 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Chalet adosado en calle Josefa Alonso Prieto La Vinagra, Casco Histórico - Ollerías - Marrubial, Córdoba</t>
+          <t>Piso en calle Bailarina Anna Pavlova, 11, Noreña - Turruñuelos, Córdoba</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Chalet</t>
+          <t>Piso</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casco Histórico - Ollerías - Marrubial</t>
+          <t xml:space="preserve"> Noreña - Turruñuelos</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H119" t="n">
-        <v>800</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+        <v>875</v>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>2ª</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5842,7 +5850,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Piso en avenida de Turruñuelos, Tablero, Córdoba</t>
+          <t>Piso en ronda de los Tejares, 18, El Vial - Ronda de Tejares, Córdoba</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -5852,16 +5860,16 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tablero</t>
+          <t xml:space="preserve"> El Vial - Ronda de Tejares</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H120" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
@@ -5870,7 +5878,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>1ª</t>
+          <t>6ª</t>
         </is>
       </c>
     </row>
@@ -5888,1399 +5896,35 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Dúplex en avenida de Abderraman I, s/n, Tablero, Córdoba</t>
+          <t>Piso en Acera Fuente de la salud, 20, Valdeolleros - Zumbacón - Camping, Córdoba</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Dúplex</t>
+          <t>Piso</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tablero</t>
+          <t xml:space="preserve"> Valdeolleros - Zumbacón - Camping</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H121" t="n">
-        <v>1700</v>
+        <v>845</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>2ª</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>1</v>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Córdoba</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>Piso en calle Pintor el Greco, 10, Vistalegre - Parque Cruz - Universidades, Córdoba</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>Piso</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Vistalegre - Parque Cruz - Universidades</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="H122" t="n">
-        <v>900</v>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
           <t>3ª</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>2</v>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Córdoba</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>Piso en calle Pintor el Greco, 10, Vistalegre - Parque Cruz - Universidades, Córdoba</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>Piso</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Vistalegre - Parque Cruz - Universidades</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="H123" t="n">
-        <v>630</v>
-      </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>2ª</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>3</v>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Córdoba</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>Piso en calle Jesús y María, 1, Centro, Córdoba</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>Piso</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Centro</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="H124" t="n">
-        <v>825</v>
-      </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>3ª</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>4</v>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Córdoba</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>Piso en calle Cronista Maraver, La Viñuela, Córdoba</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>Piso</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> La Viñuela</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>112</t>
-        </is>
-      </c>
-      <c r="H125" t="n">
-        <v>800</v>
-      </c>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>2ª</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>5</v>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Córdoba</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>Piso en El Vial - Ronda de Tejares, Córdoba</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>Piso</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Piso en El Vial - Ronda de Tejares</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="H126" t="n">
-        <v>800</v>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>2ª</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>6</v>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Córdoba</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>Piso en plaza del Moreno, San Cayetano, Córdoba</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>Piso</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> San Cayetano</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="H127" t="n">
-        <v>625</v>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>7ª</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>7</v>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Córdoba</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>Piso en El Vial - Ronda de Tejares, Córdoba</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>Piso</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Piso en El Vial - Ronda de Tejares</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="H128" t="n">
-        <v>750</v>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>1ª</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>8</v>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Córdoba</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>Piso en El Vial - Ronda de Tejares, Córdoba</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>Piso</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Piso en El Vial - Ronda de Tejares</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>124</t>
-        </is>
-      </c>
-      <c r="H129" t="n">
-        <v>970</v>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>2ª</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>9</v>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Córdoba</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>Piso en calle Maestro Priego López, s/n, Ciudad Jardín, Córdoba</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>Piso</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ciudad Jardín</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="H130" t="n">
-        <v>480</v>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>2ª</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>10</v>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Córdoba</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>Piso en Tablero, Córdoba</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>Piso</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Piso en Tablero</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H131" t="n">
-        <v>950</v>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>3ª</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>11</v>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Córdoba</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>Piso en Pedro Lopez, s/n, Centro, Córdoba</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>Piso</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Centro</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="H132" t="n">
-        <v>550</v>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>1ª</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>12</v>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Córdoba</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>Piso en teresa de calcuta, 18, Tablero, Córdoba</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>Piso</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Tablero</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="H133" t="n">
-        <v>595</v>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>13</v>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Córdoba</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>Casa o chalet independiente en calle Lucano, Casco Histórico - Corredera - Ribera, Córdoba</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>Casa</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Casco Histórico - Corredera - Ribera</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H134" t="n">
-        <v>700</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>14</v>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Córdoba</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>Piso en via Augusta, Carretera Trassierra - Colonia de la Paz, Córdoba</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>Piso</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Carretera Trassierra - Colonia de la Paz</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H135" t="n">
-        <v>800</v>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>3ª</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>15</v>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Córdoba</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>Casa o chalet independiente en calle Sansueña, s/n, Brillante, Córdoba</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>Casa</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Brillante</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>165</t>
-        </is>
-      </c>
-      <c r="H136" t="n">
-        <v>1400</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>16</v>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Córdoba</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>Ático en avenida de Turruñuelos, 4, Tablero, Córdoba</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>Ático</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Tablero</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>145</t>
-        </is>
-      </c>
-      <c r="H137" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>2ª</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>17</v>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Córdoba</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>Piso en calle Alcalde Sanz Noguer, Ciudad Jardín, Córdoba</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>Piso</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ciudad Jardín</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="H138" t="n">
-        <v>900</v>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>1ª</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>18</v>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Córdoba</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>Piso en Carretera Trassierra - Colonia de la Paz, Córdoba</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>Piso</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Piso en Carretera Trassierra - Colonia de la Paz</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="H139" t="n">
-        <v>650</v>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>2ª</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>19</v>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Córdoba</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>Piso en calle de la Previsión, 20, Ciudad Jardín, Córdoba</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>Piso</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ciudad Jardín</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>126</t>
-        </is>
-      </c>
-      <c r="H140" t="n">
-        <v>750</v>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>2ª</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>20</v>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Córdoba</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>Piso en avenida del Gran Capitán, s/n, El Vial - Ronda de Tejares, Córdoba</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>Piso</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> El Vial - Ronda de Tejares</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="H141" t="n">
-        <v>590</v>
-      </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>5ª</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>21</v>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Córdoba</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>Piso en gondomar, Centro, Córdoba</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>Piso</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Centro</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="H142" t="n">
-        <v>530</v>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>1ª</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>22</v>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Córdoba</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>Dúplex en Valdeolleros - Zumbacón - Camping, Córdoba</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>Dúplex</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Dúplex en Valdeolleros - Zumbacón - Camping</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>170</t>
-        </is>
-      </c>
-      <c r="H143" t="n">
-        <v>800</v>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>1ª</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>23</v>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Córdoba</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>Piso en via Augusta, Noreña - Turruñuelos, Córdoba</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>Piso</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Noreña - Turruñuelos</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H144" t="n">
-        <v>850</v>
-      </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>3ª</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>24</v>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Córdoba</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>Ático en Ciudad Jardín, Córdoba</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>Ático</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Ático en Ciudad Jardín</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="H145" t="n">
-        <v>780</v>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>5ª</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>25</v>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Córdoba</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>Piso en calle betis, Carretera Trassierra - Colonia de la Paz, Córdoba</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>Piso</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Carretera Trassierra - Colonia de la Paz</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="H146" t="n">
-        <v>750</v>
-      </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>2ª</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>26</v>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Córdoba</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>Piso en calle feria, esquina c/ cronista salcedo hierro, s/n, San Cayetano, Córdoba</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>Piso</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> San Cayetano</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="H147" t="n">
-        <v>725</v>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>27</v>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Córdoba</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>Piso en ronda de los Tejares, El Vial - Ronda de Tejares, Córdoba</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>Piso</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> El Vial - Ronda de Tejares</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>270</t>
-        </is>
-      </c>
-      <c r="H148" t="n">
-        <v>1700</v>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>6ª</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>28</v>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Córdoba</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>Piso en Huerta de la Reina, Córdoba</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>Piso</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Piso en Huerta de la Reina</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="H149" t="n">
-        <v>700</v>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>1ª</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>29</v>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Córdoba</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>Piso en calle Teresa de Calcuta, 11, Tablero, Córdoba</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>Piso</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Tablero</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="H150" t="n">
-        <v>595</v>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>30</v>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Córdoba</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>Piso en plaza de San Rafael, Casco Histórico - Ollerías - Marrubial, Córdoba</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>Piso</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Casco Histórico - Ollerías - Marrubial</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="H151" t="n">
-        <v>700</v>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>2ª</t>
         </is>
       </c>
     </row>
